--- a/All_Rate_Tables 08 13 2025.xlsx
+++ b/All_Rate_Tables 08 13 2025.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A1 - Rory\Python\Postage Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B486FEED-0D59-4EBE-9DD0-0177B8B8493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8569ED-2D11-4070-A35D-F9FAC32FA89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58935" yWindow="4080" windowWidth="25350" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58935" yWindow="4080" windowWidth="25350" windowHeight="12690" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="5" r:id="rId1"/>
     <sheet name="Full_Size_Rates" sheetId="1" r:id="rId2"/>
     <sheet name="Digest_Size_Rates" sheetId="2" r:id="rId3"/>
-    <sheet name="Letters_LTE_3_5oz" sheetId="3" r:id="rId4"/>
-    <sheet name="Flats_GT_QuarterInch" sheetId="4" r:id="rId5"/>
+    <sheet name="USPS_Letter_Rates" sheetId="3" r:id="rId4"/>
+    <sheet name="USPS_Flat_Rates" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -500,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630EFCEA-B7C0-46DF-93F0-5DB9965B4D57}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
